--- a/QUARAI.xlsx
+++ b/QUARAI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DAFD9F6-189A-45E2-88E1-790DAA376C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3FB7752-83B8-4204-81B9-9D3EF6AF1DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1068,7 +1055,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1128,36 +1115,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,14 +1159,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,7 +1207,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{37C101C6-D15B-461D-A45D-E9F8C6D38A01}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{A9142963-9017-4DE4-91AF-1483D3461F13}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1279,10 +1237,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AACA4C27-327F-4CDE-94FE-A4123FC7AE8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9861B8-8384-4311-B353-765DF26CDBBF}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,7 +1278,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A2B17BA-55A0-4BFB-BD04-5B5300BCEF0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A41167-DAD1-4450-95A7-7E09B56AE6CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,7 +1341,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56677B35-1A33-487A-AB01-FA6A4CF43698}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE5CDC34-9682-46B6-B5ED-266B97F6B603}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1402,7 +1360,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A272CA-D04D-35A8-0F36-0FEDD1718D3D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63BDB689-19B6-E898-22DD-9A64143D40C5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1451,7 +1409,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BD88DA4-249A-69D4-DDCB-3D2D74019EBE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A24D92-0712-FD68-CA60-F3A54F103822}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1470,7 +1428,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C94E02C-D01E-E21B-95B6-782C18C61766}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A17C98-CEEB-20B7-8C20-589F1EF84E2F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1501,7 +1459,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4A5507-418B-DDB9-351C-6B680B36256E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{407F3799-D49D-D728-550D-EF4D9E0AE9B1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1532,7 +1490,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2584E586-A35A-F84A-1C71-DE9BF85726E9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1F383A-082D-3246-77A1-B3E5BAF8F426}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1575,7 +1533,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA25CE9-A4BE-4499-A742-62261D8E8339}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F7532B-4917-48DE-9D42-CEE7CF4C66DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1571,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FDDB794-4ADA-4B2A-A8F7-C29EAEC8C99B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48FF8CEC-DEC1-4892-A4D6-72593AECFD07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1614,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0D80F4-BA31-4BD6-96B2-116CFBC4E51E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992AEEF2-39A7-45F5-8636-47B2A27ACBEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1969,7 +1927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C85049-C1A6-4BB3-A5A0-CFEA341D442E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22DB05A-0700-44B3-BD0E-32F30D63A966}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1981,98 +1939,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="34"/>
+    <col min="6" max="6" width="2" style="34" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5306,19 +5264,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5341,46 +5299,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>276</v>
       </c>
     </row>
@@ -5405,54 +5363,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>292</v>
       </c>
     </row>
@@ -5463,43 +5422,43 @@
       <c r="B2" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>45717</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="24">
         <v>1453</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>3737</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>412</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>296</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="26" t="s">
         <v>296</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="27" t="s">
         <v>297</v>
       </c>
     </row>
@@ -5530,25 +5489,24 @@
       <c r="B1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="32">
-        <f>SUM(B2:B157)</f>
-        <v>22</v>
-      </c>
-      <c r="F1" s="33">
+      <c r="E1" s="29">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="B2" s="35">
-        <v>22</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="B2" s="32">
+        <v>22</v>
+      </c>
+      <c r="C2" s="30">
         <v>1.454834016664462E-3</v>
       </c>
     </row>

--- a/QUARAI.xlsx
+++ b/QUARAI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3FB7752-83B8-4204-81B9-9D3EF6AF1DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F34D69A-8284-40D5-818B-D6D8736307CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1207,7 +1207,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{A9142963-9017-4DE4-91AF-1483D3461F13}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{E5FBFB48-B272-47FF-B002-81D8D7D12381}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1237,10 +1237,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9861B8-8384-4311-B353-765DF26CDBBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116E81F4-A726-4232-B487-03D4B0CDA91D}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1278,7 +1278,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A41167-DAD1-4450-95A7-7E09B56AE6CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE6B924-8C88-4778-97FF-84CD9A56C1FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1341,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE5CDC34-9682-46B6-B5ED-266B97F6B603}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44EF756-9CC9-4864-B797-574340E06323}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1360,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63BDB689-19B6-E898-22DD-9A64143D40C5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B98AD809-DFD5-1EB5-C294-0B8F4B8D903D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1409,7 +1409,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A24D92-0712-FD68-CA60-F3A54F103822}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4578F988-554E-667B-C1A3-6995C504EECA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1428,7 +1428,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A17C98-CEEB-20B7-8C20-589F1EF84E2F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F3F491-76F9-3E55-131A-44DB8169EBB5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1459,7 +1459,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{407F3799-D49D-D728-550D-EF4D9E0AE9B1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4260D81E-1672-819B-2DF2-99C619DDCC4E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1490,7 +1490,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1F383A-082D-3246-77A1-B3E5BAF8F426}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77CF8817-8E51-ECD0-06FC-0E0DBF97B10C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1533,7 +1533,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F7532B-4917-48DE-9D42-CEE7CF4C66DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4EDB965-FC75-4A03-BC35-4B30F1B8F82B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1571,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48FF8CEC-DEC1-4892-A4D6-72593AECFD07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5977EDE-182F-4843-854C-4EFDA9006DE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1614,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992AEEF2-39A7-45F5-8636-47B2A27ACBEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA3A051-4A2B-4341-8710-B3B845013208}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +1927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22DB05A-0700-44B3-BD0E-32F30D63A966}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0B3D8E-FFF6-4704-8A50-84B65F014732}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/QUARAI.xlsx
+++ b/QUARAI.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F34D69A-8284-40D5-818B-D6D8736307CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C43566E-E407-4CB7-8CBC-F426C095EF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="298">
   <si>
     <t>COMARCA</t>
   </si>
@@ -920,15 +919,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>QUARAÍ</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,27 +1177,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{E5FBFB48-B272-47FF-B002-81D8D7D12381}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{062B90D3-2407-4A87-B9F1-3B26AC7DCA7A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1237,10 +1212,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116E81F4-A726-4232-B487-03D4B0CDA91D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D233B5-C40D-44D2-89D4-1C73FC6359E4}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1278,7 +1253,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE6B924-8C88-4778-97FF-84CD9A56C1FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA566F9-6E0C-458C-BA84-209392299C13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1316,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44EF756-9CC9-4864-B797-574340E06323}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721E729F-38FD-44B0-8486-D2518CDE8528}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1335,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B98AD809-DFD5-1EB5-C294-0B8F4B8D903D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB72B74-5B93-F072-F81D-00324A8DFC15}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1409,7 +1384,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4578F988-554E-667B-C1A3-6995C504EECA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEBD149A-08CB-6F6A-EDD9-0F859E1B287F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1428,7 +1403,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F3F491-76F9-3E55-131A-44DB8169EBB5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD4F216-A8F1-C180-19F9-BC55D9C3C83D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1459,7 +1434,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4260D81E-1672-819B-2DF2-99C619DDCC4E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A02F292A-6AF0-04B5-D2A1-AF85810B5585}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1490,7 +1465,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77CF8817-8E51-ECD0-06FC-0E0DBF97B10C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D0342FE-DA19-D72F-CC38-6F960EBAEAA1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1533,7 +1508,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4EDB965-FC75-4A03-BC35-4B30F1B8F82B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B48A7DC-B9A0-454C-97C6-1DCE415DA8C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1546,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5977EDE-182F-4843-854C-4EFDA9006DE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F890F20-39C1-4A97-A347-6FCD722EACB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1589,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA3A051-4A2B-4341-8710-B3B845013208}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE7B5D3C-B7DD-4A2E-8898-EBB0DCBD8477}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0B3D8E-FFF6-4704-8A50-84B65F014732}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2204705E-E4BA-4D0A-BD2F-CBB3DB5C0E87}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1939,98 +1914,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5465,52 +5440,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="32">
-        <v>22</v>
-      </c>
-      <c r="C2" s="30">
-        <v>1.454834016664462E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/QUARAI.xlsx
+++ b/QUARAI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C43566E-E407-4CB7-8CBC-F426C095EF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{506A22C6-3F26-4E6F-AAEC-5D03A5CA3E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1182,7 +1182,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{062B90D3-2407-4A87-B9F1-3B26AC7DCA7A}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{67B67B1F-9F02-4BE9-98B6-20CDAAECFFCA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1212,10 +1212,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D233B5-C40D-44D2-89D4-1C73FC6359E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44EB46D6-2B02-4A62-81C2-8DE49AFB289D}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1253,7 +1253,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA566F9-6E0C-458C-BA84-209392299C13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{946ACC2A-B621-4299-AA9E-C7B33652A8E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,7 +1316,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721E729F-38FD-44B0-8486-D2518CDE8528}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF74A83-A7C8-4CB8-8A1A-D5F9991962E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1335,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB72B74-5B93-F072-F81D-00324A8DFC15}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E07E148-D8B0-E1D6-D6D5-A07ECD63AA9F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1384,7 +1384,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEBD149A-08CB-6F6A-EDD9-0F859E1B287F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0C464E-62B8-D06A-0B4A-616F5C4B5BB6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1403,7 +1403,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD4F216-A8F1-C180-19F9-BC55D9C3C83D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C9E9B1E-85CF-C6F6-7873-717A4FBD94A6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1434,7 +1434,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A02F292A-6AF0-04B5-D2A1-AF85810B5585}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6376DFEB-F0CA-A9CE-F7E5-F0C966D45D38}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1465,7 +1465,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D0342FE-DA19-D72F-CC38-6F960EBAEAA1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACC9263-A2BF-77AC-85C5-74EBDDAA486C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1508,7 +1508,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B48A7DC-B9A0-454C-97C6-1DCE415DA8C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{603FD2C2-6F20-4A6A-9379-A212D6738E3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,7 +1546,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F890F20-39C1-4A97-A347-6FCD722EACB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{297A3E46-9DC2-4D07-AD96-C30C0F77217E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,50 +1571,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE7B5D3C-B7DD-4A2E-8898-EBB0DCBD8477}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1902,7 +1858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2204705E-E4BA-4D0A-BD2F-CBB3DB5C0E87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74722C84-CD1E-4492-8DF8-0C79D4DD5DB4}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
